--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4091085.18494927</v>
+        <v>4084068.170057559</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800615</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665968</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>262.4008770978201</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>284.9247927243104</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>76.07001880870044</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>16.305287517504</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>168.2533312028362</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>105.99297414958</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.5756411391284</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>33.44464115765295</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>60.46179076613138</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>200.4661980682387</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>75.86930359156851</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634802</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710072</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206826</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417111</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896911</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274063</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498007</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784687</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560532</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986275</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.615473018212</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465688</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>77.07724240444287</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675358</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583889</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890368</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.04607632044382</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642717</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583889</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.237352398577</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890368</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.831980181937</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465688</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.237352398577</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365907</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890368</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.80859503010279</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836029</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583889</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.237352398577</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890368</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>204.1291651532099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2608,10 +2608,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385016</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.831980181937</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633773</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037925</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.920809983603</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.547561058389</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985771</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>225.6865628169663</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>162.4389966564799</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>216.828263562234</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>174.6532385185095</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
-        <v>102.0005969012857</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1164.312709242129</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="C2" t="n">
-        <v>1164.312709242129</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>1217.618876898984</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.715370239897</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1550.91254930625</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="3">
@@ -4391,10 +4391,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>396.6060931634762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>396.6060931634762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>651.2905813693631</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>396.6060931634762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>396.6060931634762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>396.6060931634762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>396.6060931634762</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1584.823100673951</v>
+        <v>770.969123535386</v>
       </c>
       <c r="C5" t="n">
-        <v>1584.823100673951</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D5" t="n">
-        <v>1226.5574020672</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E5" t="n">
-        <v>1226.5574020672</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>815.5714972775929</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>397.6076891757798</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>70.41296921178264</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2472.167541747871</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2472.167541747871</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2218.405756385962</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1887.342869042392</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1534.574213772278</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1161.108455511198</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.823100673951</v>
+        <v>770.969123535386</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.8558756644252</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C7" t="n">
-        <v>370.8558756644252</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>591.6484548079553</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.8558756644252</v>
+        <v>532.5980335608502</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783.124109094748</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1783.124109094748</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2169.72394915887</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>2169.72394915887</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,13 +4892,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5065,25 +5065,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.27469227828</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2315.738453580939</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.6596981028219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1311.205506926224</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1311.205506926224</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1022.076868139783</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1022.076868139783</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>732.6596981028219</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>732.6596981028219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>732.6596981028219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003444</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.3049164052</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155924</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805509</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822505</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146029025</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823824</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514115</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126479</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>498.9056400965638</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>745.6707680030272</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395488</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.90154205952</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278216</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060425</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5393,7 +5393,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>792.4568162435052</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>623.5206333155986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>473.4039939032632</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>325.4909003208704</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123423</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123423</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347409</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141522</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>1020.446367141522</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>792.4568162435052</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>792.4568162435052</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,43 +5503,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155891</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822465</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619124</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899121</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207823</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5560,7 +5560,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126479</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147073</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211708</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1427.741252113631</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N18" t="n">
-        <v>1757.603879777663</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>2037.14394499636</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821616</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278839</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5630,7 +5630,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609672</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550807</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>731.3177283550807</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>503.3281774570637</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>282.5355983135339</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5740,43 +5740,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619124</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899121</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>251.1748338338086</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>400.2445180358679</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1014.141587792756</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1321.461721072717</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1651.324348736749</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039407</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821616</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278839</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5867,7 +5867,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.1301850426786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>245.1301850426786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.1301850426786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655748</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286146</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305976</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>426.778649872918</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6147,49 +6147,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.599783924196</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688078</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799374</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473458</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262964</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765226</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706361</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>531.3977182706361</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>303.4081673726191</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6211,25 +6211,25 @@
         <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,19 +6238,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231263</v>
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.392413140465</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C28" t="n">
-        <v>265.392413140465</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D28" t="n">
-        <v>265.392413140465</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>265.392413140465</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>265.392413140465</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.599783924196</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799372</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471202</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.84116711973</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035283</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247887</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383472</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383472</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W28" t="n">
-        <v>447.0408779707044</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X28" t="n">
-        <v>447.0408779707044</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.0408779707044</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="29">
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,28 +6484,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>934.632733730781</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>934.632733730781</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>934.632733730781</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6697,7 +6697,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
@@ -6718,25 +6718,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4015.609665787368</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>4015.609665787368</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3865.493026375033</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3717.579932792639</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4637.069157803799</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>4637.069157803799</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>4418.050709761138</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4418.050709761138</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>4197.258130617608</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7201,22 +7201,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028587</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1322.498857912943</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1098.713442702449</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.713442702449</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>844.0289544965622</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W40" t="n">
-        <v>844.0289544965622</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X40" t="n">
-        <v>616.0394035985448</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,40 +7402,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1395.885364597008</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1395.885364597008</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>1141.200876391121</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>1141.200876391121</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7672,7 +7672,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>253.737160350474</v>
       </c>
       <c r="P12" t="n">
-        <v>15.83804904622852</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>87.16935584025913</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445237</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298972</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>286.5092576192397</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.314990659912</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>113.60269212946</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>20.63789864135478</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>122.0515063920347</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.831980181937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>68.34380561848803</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633772</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642717</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037926</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.920809983603</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.237352398577</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365907</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520944</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.7859038614931</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633772</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675358</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037926</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.920809983603</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.615473018212</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633772</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675358</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642717</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037926</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.920809983603</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583889</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.7760583219917</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633772</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675358</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642717</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037925</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.45548819888452</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.421048022931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675358</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642717</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>60.83643551962439</v>
+        <v>140.3375291694992</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>89.69864666734807</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>14.7411341369031</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.18000134477731</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>69.69473477435704</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>23.26757146509377</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
-        <v>119.5469641571036</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>75.26883114644332</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632775.4335457662</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710689</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016465</v>
+        <v>742955.213501647</v>
       </c>
       <c r="G2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="H2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="I2" t="n">
         <v>742955.2135016473</v>
       </c>
-      <c r="I2" t="n">
-        <v>742955.2135016476</v>
-      </c>
       <c r="J2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="K2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="L2" t="n">
         <v>742955.2135016472</v>
-      </c>
-      <c r="K2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="L2" t="n">
-        <v>742955.2135016471</v>
       </c>
       <c r="M2" t="n">
         <v>742955.2135016471</v>
       </c>
       <c r="N2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="O2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="P2" t="n">
         <v>742955.2135016472</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>1.03523461802979e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.026931840897305e-09</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007535</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.73165600784</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.73165600766</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007618</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007598</v>
+        <v>7916.731656007538</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007622</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007525</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007539</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007486</v>
@@ -26456,10 +26456,10 @@
         <v>7916.731656007487</v>
       </c>
       <c r="O4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007487</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007485</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26490,16 +26490,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40754.32462280567</v>
+        <v>-40754.32462280578</v>
       </c>
       <c r="C6" t="n">
         <v>549213.5545917385</v>
       </c>
       <c r="D6" t="n">
-        <v>549213.5545917385</v>
+        <v>549213.5545917387</v>
       </c>
       <c r="E6" t="n">
-        <v>117891.1194200268</v>
+        <v>116916.5281603055</v>
       </c>
       <c r="F6" t="n">
-        <v>643051.155896923</v>
+        <v>642076.5646372013</v>
       </c>
       <c r="G6" t="n">
-        <v>643051.1558969229</v>
+        <v>642076.5646372015</v>
       </c>
       <c r="H6" t="n">
-        <v>643051.1558969232</v>
+        <v>642076.5646372015</v>
       </c>
       <c r="I6" t="n">
-        <v>643051.1558969223</v>
+        <v>642076.5646372015</v>
       </c>
       <c r="J6" t="n">
-        <v>466627.9367043301</v>
+        <v>465653.3454446085</v>
       </c>
       <c r="K6" t="n">
-        <v>643051.1558969229</v>
+        <v>642076.5646372016</v>
       </c>
       <c r="L6" t="n">
-        <v>643051.1558969229</v>
+        <v>642076.5646372015</v>
       </c>
       <c r="M6" t="n">
-        <v>508250.1406630857</v>
+        <v>507275.5494033642</v>
       </c>
       <c r="N6" t="n">
-        <v>643051.1558969232</v>
+        <v>642076.5646372016</v>
       </c>
       <c r="O6" t="n">
-        <v>643051.155896923</v>
+        <v>642076.5646372016</v>
       </c>
       <c r="P6" t="n">
-        <v>643051.155896923</v>
+        <v>642076.5646372015</v>
       </c>
     </row>
   </sheetData>
@@ -26694,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26743,19 +26743,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054540988</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054540988</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>144.4751686438914</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>101.3131459317432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>210.2118554332773</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>135.6260287273572</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>6.162381606135341</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>119.7166812394571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.00901221296644</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>321.23840046303</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>190.7623767421579</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>51.67144525558933</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.179500941361766e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.463075979827688e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29289,10 +29289,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.712742850865022e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29811,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361477</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263747</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337658</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361477</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263747</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337658</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361477</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263747</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337658</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>536.1008625915821</v>
       </c>
       <c r="P12" t="n">
-        <v>222.9314639777532</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349773</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953152</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>237.7447944281978</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560236</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004653</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411074</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315241</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209228</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556569</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35822,10 +35822,10 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970350501</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953152</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879387</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560236</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004653</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411074</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>493.6026725507638</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507373</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686845</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556569</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502115</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349773</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>155.5128710843664</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879387</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594828</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504655</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178369</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315241</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507373</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686845</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556569</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556586</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187509</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556579</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299108</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799288</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789728</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056039</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206031</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.383600611801</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187502</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36925,13 +36925,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>410.0098272511731</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37873,10 +37873,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>227.7313135728794</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4084068.170057559</v>
+        <v>4089007.432906591</v>
       </c>
     </row>
     <row r="7">
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>168.2533312028362</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.5756411391284</v>
+        <v>193.5756411391281</v>
       </c>
     </row>
     <row r="8">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>59.72683757586857</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1660,13 +1660,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505273908</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2763,19 +2763,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.7097938495621</v>
       </c>
       <c r="W28" t="n">
-        <v>146.1854691670918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>271.7818641996879</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>33.35146980185854</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>210.9685212521338</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>211.2541671901477</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
         <v>532.5980335608502</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365143</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5518,22 +5518,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,7 +5594,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
@@ -5603,7 +5603,7 @@
         <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
         <v>1538.857683528586</v>
@@ -5740,7 +5740,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
@@ -5752,28 +5752,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5971,19 +5971,19 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805453</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822445</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C28" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
         <v>527.3450129705744</v>
@@ -6411,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>675.007103038344</v>
+        <v>963.6521305054455</v>
       </c>
       <c r="W28" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X28" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M30" t="n">
         <v>1595.645765494011</v>
       </c>
       <c r="N30" t="n">
-        <v>1925.508393158044</v>
+        <v>1925.508393158043</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6624,19 +6624,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,22 +6648,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6697,16 +6697,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,16 +6718,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,16 +6776,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,7 +6885,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T34" t="n">
         <v>1075.21084526296</v>
@@ -6900,10 +6900,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6934,37 +6934,37 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7013,16 +7013,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7171,13 +7171,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,25 +7198,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,16 +7250,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7487,16 +7487,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7672,7 +7672,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,16 +7724,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643586</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7833,16 +7833,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T46" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W46" t="n">
         <v>318.0096706038159</v>
@@ -7851,7 +7851,7 @@
         <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9008,22 +9008,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498455</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>253.7371603504738</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3400780863231</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>127.646125010065</v>
+        <v>127.646125010066</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.4278494742659</v>
       </c>
       <c r="W28" t="n">
-        <v>140.3375291694992</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>14.7411341369031</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>75.26883114644357</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>75.26883114644332</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26322,40 +26322,40 @@
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="F2" t="n">
         <v>742955.2135016472</v>
-      </c>
-      <c r="F2" t="n">
-        <v>742955.213501647</v>
       </c>
       <c r="G2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="H2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="I2" t="n">
+        <v>742955.2135016476</v>
+      </c>
+      <c r="J2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="K2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="L2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="M2" t="n">
         <v>742955.2135016472</v>
       </c>
-      <c r="I2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="J2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="K2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>742955.2135016472</v>
       </c>
-      <c r="M2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016473</v>
-      </c>
       <c r="O2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
@@ -26429,37 +26429,37 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007524</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007538</v>
+        <v>7916.731656007561</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007523</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="N4" t="n">
         <v>7916.731656007486</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007487</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007486</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26530,40 +26530,40 @@
         <v>549213.5545917387</v>
       </c>
       <c r="E6" t="n">
-        <v>116916.5281603055</v>
+        <v>117793.6602940551</v>
       </c>
       <c r="F6" t="n">
-        <v>642076.5646372013</v>
+        <v>642953.696770951</v>
       </c>
       <c r="G6" t="n">
-        <v>642076.5646372015</v>
+        <v>642953.696770951</v>
       </c>
       <c r="H6" t="n">
-        <v>642076.5646372015</v>
+        <v>642953.6967709512</v>
       </c>
       <c r="I6" t="n">
-        <v>642076.5646372015</v>
+        <v>642953.6967709513</v>
       </c>
       <c r="J6" t="n">
-        <v>465653.3454446085</v>
+        <v>466530.4775783582</v>
       </c>
       <c r="K6" t="n">
-        <v>642076.5646372016</v>
+        <v>642953.6967709513</v>
       </c>
       <c r="L6" t="n">
-        <v>642076.5646372015</v>
+        <v>642953.6967709509</v>
       </c>
       <c r="M6" t="n">
-        <v>507275.5494033642</v>
+        <v>508152.6815371138</v>
       </c>
       <c r="N6" t="n">
-        <v>642076.5646372016</v>
+        <v>642953.696770951</v>
       </c>
       <c r="O6" t="n">
-        <v>642076.5646372016</v>
+        <v>642953.696770951</v>
       </c>
       <c r="P6" t="n">
-        <v>642076.5646372015</v>
+        <v>642953.6967709508</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26752,10 +26752,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>6.162381606135341</v>
+        <v>6.162381606135369</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.00901221296644</v>
+        <v>25.00901221296667</v>
       </c>
     </row>
     <row r="8">
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.179500941361766e-12</v>
+        <v>1.691091711109038e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33268,7 +33268,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33277,10 +33277,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33356,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33505,7 +33505,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33514,10 +33514,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33742,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33751,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34368,40 +34368,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34453,7 +34453,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34462,10 +34462,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34541,7 +34541,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,10 +34553,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35728,22 +35728,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058698</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>586.9317337484866</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35971,19 +35971,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>331.4334930178478</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>410.0098272511731</v>
+        <v>410.009827251174</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349858</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
